--- a/datasets/arff_index.xlsx
+++ b/datasets/arff_index.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jrc\uc3m\tfm-repo\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208F5A6A-8CF1-4676-9C8B-4706A54EE88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C73A9-A663-459F-8CBA-CCE0F8A909E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>File name</t>
   </si>
@@ -43,13 +44,64 @@
   </si>
   <si>
     <t>Lighting</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Perfect natural ilumination</t>
+  </si>
+  <si>
+    <t>Bad artificial ilumination</t>
+  </si>
+  <si>
+    <t>Perfect artificial ilumination</t>
+  </si>
+  <si>
+    <t>2022-05-20_17-05-17</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>2022-05-20_17-18-39</t>
+  </si>
+  <si>
+    <t>Letters forced</t>
+  </si>
+  <si>
+    <t>numbers forced</t>
+  </si>
+  <si>
+    <t>2022-05-20_17-27-42</t>
+  </si>
+  <si>
+    <t>special characters forced</t>
+  </si>
+  <si>
+    <t>2022-05-20_17-35-11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +111,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,14 +142,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,36 +434,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876B771F-C9FF-4347-8B0D-21F2711AD807}">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>